--- a/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
+++ b/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\144\00_ 144_2020\Topic 7\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945134B8-E6E1-4470-A76F-73F21337721D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="20796" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}" mergeInterval="0" personalView="1" xWindow="90" yWindow="90" windowWidth="1733" windowHeight="952" activeSheetId="1" showComments="commIndAndComment"/>
+  </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Shares</t>
   </si>
@@ -50,12 +69,56 @@
   </si>
   <si>
     <t>Total Gain/Loss</t>
+  </si>
+  <si>
+    <t>Enter the information in columns A, B, C and D for each of your three stocks.  Enter a formula in cell F2 and use the fill-down feature to complete cells F3 and F4 (don't forget to include the fees in this formula).  Then enter a formula in cell F5 to compute the total of your three stock purchases.</t>
+  </si>
+  <si>
+    <t>Enter a formula in cell V14 to calculate the total gain/loss for all three stocks as of each date.  This will be done by adding the results in the gain/loss column for each stock. Use the fill-down feature to complete this column.</t>
+  </si>
+  <si>
+    <t>- Enter the date and closing price of each stock for each date you track after the purchase date.  The template is set up so that once you enter the initial price, ticker symbol and number of shares, that information will automatically appear in the cells from row 14 down.
+- Enter a formula in cells E14, L14, and S14 to calculate the value of each stock for each date.  Use the fill-down feature to complete these columns.
+- Enter a formula in cells F14, M14, and T14 to calculate the gain/loss of value for each stock as of each date.  Use the fill-down feature to complete these columns.  This formula should compare the value as of each date to the initial investment near the top of column F.  You will need to use $ to lock the cell where the initial investment for each stock appears.</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>If a cell is shaded</t>
+  </si>
+  <si>
+    <t>You should</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Enter a text response</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Enter a number</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Enter an Excel formula</t>
+  </si>
+  <si>
+    <t>Any other color</t>
+  </si>
+  <si>
+    <t>Make no changes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -99,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,12 +183,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -145,6 +238,181 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -153,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,28 +468,107 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -246,347 +593,32 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>508635</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>112395</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="581025" y="1047750"/>
-          <a:ext cx="4076700" cy="1085850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Enter the information</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> in columns A, B, C and D for each of your three stocks.  Enter a formula in cell F2 and use the fill-down feature to complete cells F3 and F4 (don't forget to include the fees in this formula).  Then enter a formula in cell F5 to compute the total of your three stock purchases.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5924549" y="19050"/>
-          <a:ext cx="6762752" cy="1676400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Enter the date and closing</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> price of each stock for each date you track after the purchase date.  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>The template is set up so that once you enter the initial price, ticker symbol and number of shares, that information will automatically appear in the cells from row 14 down.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Enter a formula in cells E14, L14, and S14 to calculate the value of each stock for each date.  Use the fill-down feature to complete these columns.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Enter a formula in cells F14, M14, and T14 to calculate the gain/loss of value for each stock as of each date.  Use the fill-down feature to complete these columns.  This formula should compare the value as of each date to the initial investment near the top of column F.  You will need to use $ to lock the cell </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>where the initial investment for each stock appears</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5934075" y="1695449"/>
-          <a:ext cx="4543426" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Enter a formula in cell V14 to calculate</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> the total gain/loss for all three stocks as of each date.  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>This will be done by adding the results in the gain/loss column for each stock. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Use the fill-down feature to complete this column.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4838700" y="3962400"/>
-          <a:ext cx="3505200" cy="790575"/>
+          <a:off x="2604135" y="4455795"/>
+          <a:ext cx="3581400" cy="760095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -637,6 +669,26 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F0A29500-6E36-4507-8078-D1BAE8898971}">
+  <header guid="{F0A29500-6E36-4507-8078-D1BAE8898971}" dateTime="2020-10-26T00:07:12" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{F0A29500-6E36-4507-8078-D1BAE8898971}" name="Richard Ketchersid" id="-1739566376" dateTime="2020-10-26T00:07:12"/>
+</users>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -648,34 +700,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -713,6 +765,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -748,6 +817,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -923,32 +1009,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
@@ -967,32 +1054,96 @@
       <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="36"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="34"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="34"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="34"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1000,9 +1151,127 @@
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F5" s="33"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="26"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31"/>
+    </row>
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="H10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="25"/>
+    </row>
+    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+    </row>
+    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1021,22 +1290,22 @@
       <c r="F13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6" t="s">
+      <c r="J13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="20" t="s">
         <v>8</v>
       </c>
       <c r="O13" s="4" t="s">
@@ -1061,7 +1330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <f>A2</f>
         <v>0</v>
@@ -1078,8 +1347,8 @@
         <f>D2</f>
         <v>0</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
       <c r="H14" s="15">
         <f>A3</f>
         <v>0</v>
@@ -1096,8 +1365,8 @@
         <f>D3</f>
         <v>0</v>
       </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
       <c r="O14" s="15">
         <f>A4</f>
         <v>0</v>
@@ -1114,12 +1383,12 @@
         <f>D4</f>
         <v>0</v>
       </c>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="V14" s="23"/>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="V14" s="33"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
       <c r="B15" s="13">
         <f t="shared" ref="B15:B18" si="0">$B$2</f>
         <v>0</v>
@@ -1128,10 +1397,10 @@
         <f t="shared" ref="C15:C18" si="1">$C$2</f>
         <v>0</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="H15" s="21"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="13">
         <f t="shared" ref="I15:I18" si="2">$B$3</f>
         <v>0</v>
@@ -1140,10 +1409,10 @@
         <f t="shared" ref="J15:J18" si="3">$C$3</f>
         <v>0</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="O15" s="21"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="O15" s="18"/>
       <c r="P15" s="13">
         <f t="shared" ref="P15:P18" si="4">$B$4</f>
         <v>0</v>
@@ -1152,13 +1421,13 @@
         <f t="shared" ref="Q15:Q18" si="5">$C$4</f>
         <v>0</v>
       </c>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="V15" s="23"/>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="V15" s="33"/>
+    </row>
+    <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
       <c r="B16" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1167,10 +1436,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="H16" s="21"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1179,10 +1448,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="O16" s="21"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="O16" s="18"/>
       <c r="P16" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1191,13 +1460,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="V16" s="23"/>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="V16" s="33"/>
+    </row>
+    <row r="17" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
       <c r="B17" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1206,10 +1475,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="H17" s="21"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1218,10 +1487,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="O17" s="21"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="O17" s="18"/>
       <c r="P17" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1230,13 +1499,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="V17" s="23"/>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="V17" s="33"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
       <c r="B18" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1245,10 +1514,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="H18" s="21"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1257,10 +1526,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="O18" s="21"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="O18" s="18"/>
       <c r="P18" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1269,14 +1538,27 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="V18" s="23"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="V18" s="33"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}">
+      <selection activeCell="B3" sqref="B3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="4">
+    <mergeCell ref="A7:F11"/>
+    <mergeCell ref="H10:M12"/>
+    <mergeCell ref="H1:Q8"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
+++ b/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\144\00_ 144_2020\Topic 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945134B8-E6E1-4470-A76F-73F21337721D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{11BF9DE3-6354-404E-A61F-AF8E22EE0AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="20796" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Stocks" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -489,41 +489,79 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,44 +570,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -589,89 +589,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>508635</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>112395</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2604135" y="4455795"/>
-          <a:ext cx="3581400" cy="760095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Note:  You may need to add</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> additional rows after row 18 depending on how many dates you are asked to record.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F0A29500-6E36-4507-8078-D1BAE8898971}">
-  <header guid="{F0A29500-6E36-4507-8078-D1BAE8898971}" dateTime="2020-10-26T00:07:12" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E1FAC1C7-3062-4A77-A953-19A314D6FAB4}">
+  <header guid="{E1FAC1C7-3062-4A77-A953-19A314D6FAB4}" dateTime="2020-10-28T16:20:48" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -685,7 +605,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{F0A29500-6E36-4507-8078-D1BAE8898971}" name="Richard Ketchersid" id="-1739566376" dateTime="2020-10-26T00:07:12"/>
+  <userInfo guid="{E1FAC1C7-3062-4A77-A953-19A314D6FAB4}" name="Richard Ketchersid" id="-1739538131" dateTime="2020-10-28T16:20:48"/>
 </users>
 </file>
 
@@ -1013,7 +933,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,92 +974,92 @@
       <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="35" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="36"/>
+      <c r="S1" s="46"/>
     </row>
     <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
-      <c r="F2" s="34"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="37" t="s">
+      <c r="F2" s="24"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="34"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="39" t="s">
+      <c r="F3" s="24"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="40" t="s">
+      <c r="S3" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="34"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="41" t="s">
+      <c r="F4" s="24"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="40" t="s">
+      <c r="S4" s="28" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1151,125 +1071,125 @@
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="33"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="42" t="s">
+      <c r="F5" s="23"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="40" t="s">
+      <c r="S5" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="43" t="s">
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="44" t="s">
+      <c r="S6" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="28"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="43"/>
     </row>
     <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-      <c r="H10" s="32" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="H10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="37"/>
     </row>
     <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="31"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -1347,8 +1267,8 @@
         <f>D2</f>
         <v>0</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
       <c r="H14" s="15">
         <f>A3</f>
         <v>0</v>
@@ -1365,8 +1285,8 @@
         <f>D3</f>
         <v>0</v>
       </c>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
       <c r="O14" s="15">
         <f>A4</f>
         <v>0</v>
@@ -1383,9 +1303,9 @@
         <f>D4</f>
         <v>0</v>
       </c>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="V14" s="33"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="V14" s="23"/>
     </row>
     <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
@@ -1398,8 +1318,8 @@
         <v>0</v>
       </c>
       <c r="D15" s="19"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
       <c r="H15" s="18"/>
       <c r="I15" s="13">
         <f t="shared" ref="I15:I18" si="2">$B$3</f>
@@ -1410,8 +1330,8 @@
         <v>0</v>
       </c>
       <c r="K15" s="19"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
       <c r="O15" s="18"/>
       <c r="P15" s="13">
         <f t="shared" ref="P15:P18" si="4">$B$4</f>
@@ -1422,9 +1342,9 @@
         <v>0</v>
       </c>
       <c r="R15" s="19"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="V15" s="33"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="V15" s="23"/>
     </row>
     <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
@@ -1437,8 +1357,8 @@
         <v>0</v>
       </c>
       <c r="D16" s="19"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
       <c r="H16" s="18"/>
       <c r="I16" s="13">
         <f t="shared" si="2"/>
@@ -1449,8 +1369,8 @@
         <v>0</v>
       </c>
       <c r="K16" s="19"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
       <c r="O16" s="18"/>
       <c r="P16" s="13">
         <f t="shared" si="4"/>
@@ -1461,9 +1381,9 @@
         <v>0</v>
       </c>
       <c r="R16" s="19"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="V16" s="33"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="V16" s="23"/>
     </row>
     <row r="17" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
@@ -1476,8 +1396,8 @@
         <v>0</v>
       </c>
       <c r="D17" s="19"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
       <c r="H17" s="18"/>
       <c r="I17" s="13">
         <f t="shared" si="2"/>
@@ -1488,8 +1408,8 @@
         <v>0</v>
       </c>
       <c r="K17" s="19"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
       <c r="O17" s="18"/>
       <c r="P17" s="13">
         <f t="shared" si="4"/>
@@ -1500,9 +1420,9 @@
         <v>0</v>
       </c>
       <c r="R17" s="19"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="V17" s="33"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="V17" s="23"/>
     </row>
     <row r="18" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
@@ -1515,8 +1435,8 @@
         <v>0</v>
       </c>
       <c r="D18" s="19"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
       <c r="H18" s="18"/>
       <c r="I18" s="13">
         <f t="shared" si="2"/>
@@ -1527,8 +1447,8 @@
         <v>0</v>
       </c>
       <c r="K18" s="19"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
       <c r="O18" s="18"/>
       <c r="P18" s="13">
         <f t="shared" si="4"/>
@@ -1539,14 +1459,14 @@
         <v>0</v>
       </c>
       <c r="R18" s="19"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="V18" s="33"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="V18" s="23"/>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
@@ -1559,6 +1479,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
+++ b/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{11BF9DE3-6354-404E-A61F-AF8E22EE0AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{D70A15A7-0010-4699-B7C5-E52230A9F93C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="20796" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Shares</t>
   </si>
@@ -71,48 +71,63 @@
     <t>Total Gain/Loss</t>
   </si>
   <si>
-    <t>Enter the information in columns A, B, C and D for each of your three stocks.  Enter a formula in cell F2 and use the fill-down feature to complete cells F3 and F4 (don't forget to include the fees in this formula).  Then enter a formula in cell F5 to compute the total of your three stock purchases.</t>
-  </si>
-  <si>
-    <t>Enter a formula in cell V14 to calculate the total gain/loss for all three stocks as of each date.  This will be done by adding the results in the gain/loss column for each stock. Use the fill-down feature to complete this column.</t>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>If a cell is shaded</t>
+  </si>
+  <si>
+    <t>You should</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Enter a text response</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Enter a number</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Enter an Excel formula</t>
+  </si>
+  <si>
+    <t>Any other color</t>
+  </si>
+  <si>
+    <t>Make no changes</t>
+  </si>
+  <si>
+    <t>1 year ago</t>
+  </si>
+  <si>
+    <t>6 months ago</t>
+  </si>
+  <si>
+    <t>9 months ago</t>
+  </si>
+  <si>
+    <t>3 months ago</t>
+  </si>
+  <si>
+    <t>today</t>
   </si>
   <si>
     <t>- Enter the date and closing price of each stock for each date you track after the purchase date.  The template is set up so that once you enter the initial price, ticker symbol and number of shares, that information will automatically appear in the cells from row 14 down.
-- Enter a formula in cells E14, L14, and S14 to calculate the value of each stock for each date.  Use the fill-down feature to complete these columns.
-- Enter a formula in cells F14, M14, and T14 to calculate the gain/loss of value for each stock as of each date.  Use the fill-down feature to complete these columns.  This formula should compare the value as of each date to the initial investment near the top of column F.  You will need to use $ to lock the cell where the initial investment for each stock appears.</t>
-  </si>
-  <si>
-    <t>Legend</t>
-  </si>
-  <si>
-    <t>If a cell is shaded</t>
-  </si>
-  <si>
-    <t>You should</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Enter a text response</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Enter a number</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Enter an Excel formula</t>
-  </si>
-  <si>
-    <t>Any other color</t>
-  </si>
-  <si>
-    <t>Make no changes</t>
+- Enter a formula in cells F14, M14, and T14 to calculate the value of each stock for each date.  Use the fill-down feature to complete these columns.
+- Enter a formula in cells G14, N14, and U14 to calculate the gain/loss of value for each stock as of each date.  Use the fill-down feature to complete these columns.  This formula should compare the value as of each date to the initial investment near the top of column F.  You will need to use $ to lock the cell where the initial investment for each stock appears.</t>
+  </si>
+  <si>
+    <t>Enter a formula in cell W14 to calculate the total gain/loss for all three stocks as of each date.  This will be done by adding the results in the gain/loss column for each stock. Use the fill-down feature to complete this column.</t>
+  </si>
+  <si>
+    <t>Enter the information in columns B, C, D and E for each of your three stocks.  Enter a formula in cell G2 and use the fill-down feature to complete cells G3 and G4 (don't forget to include the fees in this formula).  Then enter a formula in cell G5 to compute the total of your three stock purchases.</t>
   </si>
 </sst>
 </file>
@@ -123,7 +138,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +172,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -421,7 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,6 +591,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -587,26 +611,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E1FAC1C7-3062-4A77-A953-19A314D6FAB4}">
-  <header guid="{E1FAC1C7-3062-4A77-A953-19A314D6FAB4}" dateTime="2020-10-28T16:20:48" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{E1FAC1C7-3062-4A77-A953-19A314D6FAB4}" name="Richard Ketchersid" id="-1739538131" dateTime="2020-10-28T16:20:48"/>
-</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -930,54 +934,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" customWidth="1"/>
-    <col min="22" max="22" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" customWidth="1"/>
+    <col min="23" max="23" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:23" ht="15.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="44" t="s">
+        <v>28</v>
+      </c>
       <c r="J1" s="36"/>
       <c r="K1" s="36"/>
       <c r="L1" s="36"/>
@@ -985,21 +989,24 @@
       <c r="N1" s="36"/>
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="46"/>
-    </row>
-    <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="46"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="17"/>
-      <c r="F2" s="24"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="24"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
       <c r="L2" s="39"/>
@@ -1007,23 +1014,26 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="24"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="24"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="39"/>
       <c r="K3" s="39"/>
       <c r="L3" s="39"/>
@@ -1031,23 +1041,26 @@
       <c r="N3" s="39"/>
       <c r="O3" s="39"/>
       <c r="P3" s="39"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="24"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="24"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
@@ -1055,25 +1068,26 @@
       <c r="N4" s="39"/>
       <c r="O4" s="39"/>
       <c r="P4" s="39"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="Q4" s="39"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="23"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="23"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
@@ -1081,17 +1095,18 @@
       <c r="N5" s="39"/>
       <c r="O5" s="39"/>
       <c r="P5" s="39"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="47"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
@@ -1099,25 +1114,26 @@
       <c r="N6" s="39"/>
       <c r="O6" s="39"/>
       <c r="P6" s="39"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="36"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="47"/>
+      <c r="B7" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
@@ -1125,17 +1141,18 @@
       <c r="N7" s="39"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
-      <c r="Q7" s="40"/>
-    </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="40"/>
+    </row>
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="47"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
@@ -1143,325 +1160,346 @@
       <c r="N8" s="42"/>
       <c r="O8" s="42"/>
       <c r="P8" s="42"/>
-      <c r="Q8" s="43"/>
-    </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="43"/>
+    </row>
+    <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="47"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="47"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="H10" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="36"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="I10" s="35" t="s">
+        <v>29</v>
+      </c>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="47"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
-      <c r="M11" s="40"/>
-    </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="40"/>
+    </row>
+    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="47"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="43"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="M12" s="42"/>
+      <c r="N12" s="43"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
+      <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="I13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="J13" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="M13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="N13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="T13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="U13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="W13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
-        <f>A2</f>
-        <v>0</v>
-      </c>
-      <c r="B14" s="13">
-        <f>$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="14">
+    <row r="14" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="15">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
         <f>$C$2</f>
         <v>0</v>
       </c>
-      <c r="D14" s="9">
-        <f>D2</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="23"/>
+      <c r="D14" s="14">
+        <f>$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <f>E2</f>
+        <v>0</v>
+      </c>
       <c r="F14" s="23"/>
-      <c r="H14" s="15">
-        <f>A3</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
-        <f>$B$3</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
+      <c r="G14" s="23"/>
+      <c r="I14" s="15">
+        <f>B3</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
         <f>$C$3</f>
         <v>0</v>
       </c>
-      <c r="K14" s="9">
-        <f>D3</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="23"/>
+      <c r="K14" s="14">
+        <f>$D$3</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <f>E3</f>
+        <v>0</v>
+      </c>
       <c r="M14" s="23"/>
-      <c r="O14" s="15">
-        <f>A4</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="13">
-        <f>$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="14">
+      <c r="N14" s="23"/>
+      <c r="P14" s="15">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13">
         <f>$C$4</f>
         <v>0</v>
       </c>
-      <c r="R14" s="9">
-        <f>D4</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="23"/>
+      <c r="R14" s="14">
+        <f>$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <f>E4</f>
+        <v>0</v>
+      </c>
       <c r="T14" s="23"/>
-      <c r="V14" s="23"/>
-    </row>
-    <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="13">
-        <f t="shared" ref="B15:B18" si="0">$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <f t="shared" ref="C15:C18" si="1">$C$2</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="W14" s="23"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="13">
+        <f t="shared" ref="C15:C18" si="0">$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" ref="D15:D18" si="1">$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="19"/>
       <c r="F15" s="23"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="13">
-        <f t="shared" ref="I15:I18" si="2">$B$3</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <f t="shared" ref="J15:J18" si="3">$C$3</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="13">
+        <f t="shared" ref="J15:J18" si="2">$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" ref="K15:K18" si="3">$D$3</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="19"/>
       <c r="M15" s="23"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="13">
-        <f t="shared" ref="P15:P18" si="4">$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="14">
-        <f t="shared" ref="Q15:Q18" si="5">$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="19"/>
-      <c r="S15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="13">
+        <f t="shared" ref="Q15:Q18" si="4">$C$4</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="14">
+        <f t="shared" ref="R15:R18" si="5">$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="19"/>
       <c r="T15" s="23"/>
-      <c r="V15" s="23"/>
-    </row>
-    <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="13">
+      <c r="U15" s="23"/>
+      <c r="W15" s="23"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C16" s="14">
+      <c r="D16" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="23"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="23"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="13">
+      <c r="G16" s="23"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="14">
+      <c r="K16" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="23"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="23"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="13">
+      <c r="N16" s="23"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="R16" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R16" s="19"/>
-      <c r="S16" s="23"/>
+      <c r="S16" s="19"/>
       <c r="T16" s="23"/>
-      <c r="V16" s="23"/>
-    </row>
-    <row r="17" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="13">
+      <c r="U16" s="23"/>
+      <c r="W16" s="23"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C17" s="14">
+      <c r="D17" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="23"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="23"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="13">
+      <c r="G17" s="23"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="14">
+      <c r="K17" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="23"/>
+      <c r="L17" s="19"/>
       <c r="M17" s="23"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="13">
+      <c r="N17" s="23"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="R17" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="23"/>
+      <c r="S17" s="19"/>
       <c r="T17" s="23"/>
-      <c r="V17" s="23"/>
-    </row>
-    <row r="18" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="13">
+      <c r="U17" s="23"/>
+      <c r="W17" s="23"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C18" s="14">
+      <c r="D18" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="23"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="23"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="13">
+      <c r="G18" s="23"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J18" s="14">
+      <c r="K18" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="23"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="13">
+      <c r="N18" s="23"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="R18" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R18" s="19"/>
-      <c r="S18" s="23"/>
+      <c r="S18" s="19"/>
       <c r="T18" s="23"/>
-      <c r="V18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="W18" s="23"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -1472,11 +1510,12 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="4">
-    <mergeCell ref="A7:F11"/>
-    <mergeCell ref="H10:M12"/>
-    <mergeCell ref="H1:Q8"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="B7:G11"/>
+    <mergeCell ref="I10:N12"/>
+    <mergeCell ref="I1:R8"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>

--- a/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
+++ b/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{D70A15A7-0010-4699-B7C5-E52230A9F93C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E787C4DE-C6ED-4180-9D60-02FBFC7127AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="20796" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,6 +554,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -591,9 +594,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -611,6 +611,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4C707B72-4DE4-40FF-B564-69B8E4341870}">
+  <header guid="{4C707B72-4DE4-40FF-B564-69B8E4341870}" dateTime="2020-10-28T16:27:16" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{4C707B72-4DE4-40FF-B564-69B8E4341870}" name="Richard Ketchersid" id="-1739579407" dateTime="2020-10-28T16:27:16"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -979,25 +999,25 @@
       <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="45" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="46"/>
+      <c r="T1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="35" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="33"/>
@@ -1006,16 +1026,16 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
       <c r="G2" s="24"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="40"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="41"/>
       <c r="S2" s="25" t="s">
         <v>13</v>
       </c>
@@ -1024,7 +1044,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="35" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="33"/>
@@ -1033,16 +1053,16 @@
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="24"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="41"/>
       <c r="S3" s="27" t="s">
         <v>15</v>
       </c>
@@ -1051,7 +1071,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="35" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="33"/>
@@ -1060,16 +1080,16 @@
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="24"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="40"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="41"/>
       <c r="S4" s="29" t="s">
         <v>17</v>
       </c>
@@ -1078,7 +1098,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1087,16 +1107,16 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="23"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="40"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
       <c r="S5" s="30" t="s">
         <v>19</v>
       </c>
@@ -1105,17 +1125,17 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="40"/>
+      <c r="A6" s="35"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="41"/>
       <c r="S6" s="31" t="s">
         <v>21</v>
       </c>
@@ -1124,97 +1144,97 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="41"/>
     </row>
     <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="47"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="43"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="44"/>
     </row>
     <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="47"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="I10" s="35" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="I10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="38"/>
     </row>
     <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="47"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="40"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="41"/>
     </row>
     <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="47"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="43"/>
+      <c r="A12" s="35"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="44"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1294,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="35" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="15">
@@ -1334,7 +1354,7 @@
       <c r="W14" s="23"/>
     </row>
     <row r="15" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="35" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="18"/>
@@ -1376,7 +1396,7 @@
       <c r="W15" s="23"/>
     </row>
     <row r="16" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="35" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="18"/>
@@ -1418,7 +1438,7 @@
       <c r="W16" s="23"/>
     </row>
     <row r="17" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="18"/>
@@ -1460,7 +1480,7 @@
       <c r="W17" s="23"/>
     </row>
     <row r="18" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="35" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="18"/>
@@ -1504,7 +1524,7 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>

--- a/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
+++ b/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E787C4DE-C6ED-4180-9D60-02FBFC7127AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{DB45A9F4-D57C-45D1-B3F3-132C5373C45C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="20796" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +178,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -442,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -584,9 +591,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -594,6 +598,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -614,8 +648,13 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4C707B72-4DE4-40FF-B564-69B8E4341870}">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{8ADA0E85-DE7B-4E74-8962-F8384FDE7704}" diskRevisions="1" version="2">
   <header guid="{4C707B72-4DE4-40FF-B564-69B8E4341870}" dateTime="2020-10-28T16:27:16" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8ADA0E85-DE7B-4E74-8962-F8384FDE7704}" dateTime="2020-10-28T17:30:02" maxSheetId="2" userName="Richard Ketchersid" r:id="rId2">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -627,9 +666,29 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="I1:R8" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="I10:N12" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{4C707B72-4DE4-40FF-B564-69B8E4341870}" name="Richard Ketchersid" id="-1739579407" dateTime="2020-10-28T16:27:16"/>
+  <userInfo guid="{8ADA0E85-DE7B-4E74-8962-F8384FDE7704}" name="Richard Ketchersid" id="-1739541573" dateTime="2020-10-28T17:29:47"/>
 </users>
 </file>
 
@@ -957,7 +1016,7 @@
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,22 +1058,22 @@
       <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="46" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="47"/>
+      <c r="T1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
@@ -1026,16 +1085,16 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
       <c r="G2" s="24"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="41"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="52"/>
       <c r="S2" s="25" t="s">
         <v>13</v>
       </c>
@@ -1053,16 +1112,16 @@
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="24"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="41"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="52"/>
       <c r="S3" s="27" t="s">
         <v>15</v>
       </c>
@@ -1080,16 +1139,16 @@
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="24"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="52"/>
       <c r="S4" s="29" t="s">
         <v>17</v>
       </c>
@@ -1107,16 +1166,16 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="23"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="41"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="52"/>
       <c r="S5" s="30" t="s">
         <v>19</v>
       </c>
@@ -1126,16 +1185,16 @@
     </row>
     <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="41"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="52"/>
       <c r="S6" s="31" t="s">
         <v>21</v>
       </c>
@@ -1153,16 +1212,16 @@
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
       <c r="G7" s="38"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="41"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="52"/>
     </row>
     <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35"/>
@@ -1172,16 +1231,16 @@
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="41"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="44"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="55"/>
     </row>
     <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35"/>
@@ -1200,14 +1259,14 @@
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="41"/>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="49"/>
     </row>
     <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35"/>
@@ -1217,21 +1276,21 @@
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
       <c r="G11" s="44"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="41"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
     </row>
     <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="44"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="55"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>

--- a/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
+++ b/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{DB45A9F4-D57C-45D1-B3F3-132C5373C45C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{356C137C-8E47-4B29-BBF2-DC5D5A2E7ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="20796" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,25 +189,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -449,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -496,57 +490,45 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -555,79 +537,94 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -648,13 +645,18 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{8ADA0E85-DE7B-4E74-8962-F8384FDE7704}" diskRevisions="1" version="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{39A448A8-E963-40E6-9883-CDF7AA272EC6}" diskRevisions="1" version="3">
   <header guid="{4C707B72-4DE4-40FF-B564-69B8E4341870}" dateTime="2020-10-28T16:27:16" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
   <header guid="{8ADA0E85-DE7B-4E74-8962-F8384FDE7704}" dateTime="2020-10-28T17:30:02" maxSheetId="2" userName="Richard Ketchersid" r:id="rId2">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{39A448A8-E963-40E6-9883-CDF7AA272EC6}" dateTime="2020-11-06T11:08:31" maxSheetId="2" userName="Richard Ketchersid" r:id="rId3">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -685,10 +687,111 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="B15:B18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="E15:E18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="I15:I18" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="I15:I18" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="I15:I18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="L15:L18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="P15:P18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="S15:S18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="L15:L18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="E15:E18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="D2:F4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
   <userInfo guid="{4C707B72-4DE4-40FF-B564-69B8E4341870}" name="Richard Ketchersid" id="-1739579407" dateTime="2020-10-28T16:27:16"/>
   <userInfo guid="{8ADA0E85-DE7B-4E74-8962-F8384FDE7704}" name="Richard Ketchersid" id="-1739541573" dateTime="2020-10-28T17:29:47"/>
+  <userInfo guid="{39A448A8-E963-40E6-9883-CDF7AA272EC6}" name="Richard Ketchersid" id="-1739549357" dateTime="2020-11-06T11:07:07"/>
 </users>
 </file>
 
@@ -1016,7 +1119,7 @@
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,106 +1161,106 @@
       <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="45" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="46"/>
+      <c r="T1" s="52"/>
     </row>
     <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="24"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="25" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="20"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="T2" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="24"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="27" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="20"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="24"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="29" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="20"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1165,135 +1268,135 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="23"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="30" t="s">
+      <c r="G5" s="19"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="28" t="s">
+      <c r="T5" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="35"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="31" t="s">
+      <c r="A6" s="31"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="32" t="s">
+      <c r="T6" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="52"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="46"/>
     </row>
     <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="55"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="49"/>
     </row>
     <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="I10" s="56" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="I10" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="49"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="43"/>
     </row>
     <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="52"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="46"/>
     </row>
     <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="55"/>
+      <c r="A12" s="31"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="49"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1312,22 +1415,22 @@
       <c r="G13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="22" t="s">
+      <c r="K13" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="16" t="s">
         <v>8</v>
       </c>
       <c r="P13" s="4" t="s">
@@ -1353,7 +1456,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="15">
@@ -1372,8 +1475,8 @@
         <f>E2</f>
         <v>0</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
       <c r="I14" s="15">
         <f>B3</f>
         <v>0</v>
@@ -1390,8 +1493,8 @@
         <f>E3</f>
         <v>0</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
       <c r="P14" s="15">
         <f>B4</f>
         <v>0</v>
@@ -1408,15 +1511,15 @@
         <f>E4</f>
         <v>0</v>
       </c>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="W14" s="23"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="W14" s="19"/>
     </row>
     <row r="15" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="13">
         <f t="shared" ref="C15:C18" si="0">$C$2</f>
         <v>0</v>
@@ -1425,10 +1528,10 @@
         <f t="shared" ref="D15:D18" si="1">$D$2</f>
         <v>0</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="I15" s="18"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="13">
         <f t="shared" ref="J15:J18" si="2">$C$3</f>
         <v>0</v>
@@ -1437,10 +1540,10 @@
         <f t="shared" ref="K15:K18" si="3">$D$3</f>
         <v>0</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="P15" s="18"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="P15" s="53"/>
       <c r="Q15" s="13">
         <f t="shared" ref="Q15:Q18" si="4">$C$4</f>
         <v>0</v>
@@ -1449,16 +1552,16 @@
         <f t="shared" ref="R15:R18" si="5">$D$4</f>
         <v>0</v>
       </c>
-      <c r="S15" s="19"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="W15" s="23"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="W15" s="19"/>
     </row>
     <row r="16" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1467,10 +1570,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="I16" s="18"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1479,10 +1582,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="P16" s="18"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="P16" s="53"/>
       <c r="Q16" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1491,16 +1594,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S16" s="19"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="W16" s="23"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="W16" s="19"/>
     </row>
     <row r="17" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1509,10 +1612,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="I17" s="18"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="I17" s="54"/>
       <c r="J17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1521,10 +1624,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="P17" s="18"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="P17" s="53"/>
       <c r="Q17" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1533,16 +1636,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S17" s="19"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="W17" s="23"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="W17" s="19"/>
     </row>
     <row r="18" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1551,10 +1654,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="I18" s="18"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1563,10 +1666,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="P18" s="18"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="P18" s="53"/>
       <c r="Q18" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1575,10 +1678,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S18" s="19"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="W18" s="23"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="W18" s="19"/>
     </row>
   </sheetData>
   <customSheetViews>

--- a/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
+++ b/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{356C137C-8E47-4B29-BBF2-DC5D5A2E7ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99624DD-700A-4998-9FAD-E2780137BE46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="20796" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="1350" windowWidth="25995" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}" mergeInterval="0" personalView="1" xWindow="90" yWindow="90" windowWidth="1733" windowHeight="952" activeSheetId="1" showComments="commIndAndComment"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}" mergeInterval="0" personalView="1" xWindow="90" yWindow="90" windowWidth="1733" windowHeight="952" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>Shares</t>
   </si>
@@ -119,15 +119,27 @@
     <t>today</t>
   </si>
   <si>
-    <t>- Enter the date and closing price of each stock for each date you track after the purchase date.  The template is set up so that once you enter the initial price, ticker symbol and number of shares, that information will automatically appear in the cells from row 14 down.
-- Enter a formula in cells F14, M14, and T14 to calculate the value of each stock for each date.  Use the fill-down feature to complete these columns.
-- Enter a formula in cells G14, N14, and U14 to calculate the gain/loss of value for each stock as of each date.  Use the fill-down feature to complete these columns.  This formula should compare the value as of each date to the initial investment near the top of column F.  You will need to use $ to lock the cell where the initial investment for each stock appears.</t>
-  </si>
-  <si>
-    <t>Enter a formula in cell W14 to calculate the total gain/loss for all three stocks as of each date.  This will be done by adding the results in the gain/loss column for each stock. Use the fill-down feature to complete this column.</t>
-  </si>
-  <si>
     <t>Enter the information in columns B, C, D and E for each of your three stocks.  Enter a formula in cell G2 and use the fill-down feature to complete cells G3 and G4 (don't forget to include the fees in this formula).  Then enter a formula in cell G5 to compute the total of your three stock purchases.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Your Name</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>- Enter the date and closing price of each stock for each date you track after the purchase date. 
+- Enter a formula in cells F17, M17, and F24 to calculate the value of each stock for each date.  Use the fill-down feature to complete these columns.
+- Enter a formula in cells G17, N17, and G24 to calculate the gain/loss of value for each stock as of each date.  Use the fill-down feature to complete these columns.  This formula should compare the value as of each date to the initial investment near the top of column F.  You will need to use $ to lock the cell where the initial investment for each stock appears.</t>
+  </si>
+  <si>
+    <t>Enter a formula in cell W24 to calculate the total gain/loss for all three stocks as of each date.  This will be done by adding the results in the gain/loss column for each stock. Use the fill-down feature to complete this column.</t>
   </si>
 </sst>
 </file>
@@ -138,7 +150,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +207,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -240,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -344,19 +380,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -438,12 +461,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,30 +551,33 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -521,117 +585,144 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="16" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -644,19 +735,66 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F29CF4-3D17-4127-AFB9-C237513B21B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:alphaModFix amt="92000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095875" y="190500"/>
+          <a:ext cx="257175" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{39A448A8-E963-40E6-9883-CDF7AA272EC6}" diskRevisions="1" version="3">
-  <header guid="{4C707B72-4DE4-40FF-B564-69B8E4341870}" dateTime="2020-10-28T16:27:16" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{8ADA0E85-DE7B-4E74-8962-F8384FDE7704}" dateTime="2020-10-28T17:30:02" maxSheetId="2" userName="Richard Ketchersid" r:id="rId2">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{39A448A8-E963-40E6-9883-CDF7AA272EC6}" dateTime="2020-11-06T11:08:31" maxSheetId="2" userName="Richard Ketchersid" r:id="rId3">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{433902EB-452D-4D6D-802B-FD677F61FA55}">
+  <header guid="{433902EB-452D-4D6D-802B-FD677F61FA55}" dateTime="2021-08-20T13:17:36" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -668,130 +806,9 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="I1:R8" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="I10:N12" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="B15:B18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="E15:E18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="I15:I18" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="I15:I18" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="I15:I18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="L15:L18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="P15:P18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="S15:S18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="L15:L18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="E15:E18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="D2:F4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
-  <userInfo guid="{4C707B72-4DE4-40FF-B564-69B8E4341870}" name="Richard Ketchersid" id="-1739579407" dateTime="2020-10-28T16:27:16"/>
-  <userInfo guid="{8ADA0E85-DE7B-4E74-8962-F8384FDE7704}" name="Richard Ketchersid" id="-1739541573" dateTime="2020-10-28T17:29:47"/>
-  <userInfo guid="{39A448A8-E963-40E6-9883-CDF7AA272EC6}" name="Richard Ketchersid" id="-1739549357" dateTime="2020-11-06T11:07:07"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{433902EB-452D-4D6D-802B-FD677F61FA55}" name="Richard Ketchersid" id="-1739585527" dateTime="2021-08-20T13:17:36"/>
 </users>
 </file>
 
@@ -1116,206 +1133,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="19" max="19" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" customWidth="1"/>
-    <col min="23" max="23" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="55"/>
+    </row>
+    <row r="2" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="F2" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
+      <c r="L2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="D4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="52"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="L4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="20"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="17"/>
+      <c r="L5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="20"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="17"/>
+      <c r="L6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="20"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="T4" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="19"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" s="28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="I7" s="44"/>
+      <c r="G7" s="17"/>
+      <c r="I7" s="53" t="s">
+        <v>33</v>
+      </c>
       <c r="J7" s="45"/>
       <c r="K7" s="45"/>
       <c r="L7" s="45"/>
@@ -1326,14 +1281,16 @@
       <c r="Q7" s="45"/>
       <c r="R7" s="46"/>
     </row>
-    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="16"/>
       <c r="I8" s="47"/>
       <c r="J8" s="48"/>
       <c r="K8" s="48"/>
@@ -1345,360 +1302,496 @@
       <c r="Q8" s="48"/>
       <c r="R8" s="49"/>
     </row>
-    <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="35"/>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="49"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="35" t="s">
+        <v>28</v>
+      </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
-      <c r="I10" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="43"/>
-    </row>
-    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="49"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
       <c r="B11" s="38"/>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
       <c r="G11" s="40"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="46"/>
-    </row>
-    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="49"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
       <c r="I12" s="47"/>
       <c r="J12" s="48"/>
       <c r="K12" s="48"/>
       <c r="L12" s="48"/>
       <c r="M12" s="48"/>
-      <c r="N12" s="49"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="4" t="s">
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="49"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="49"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="52"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="D16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="18" t="s">
+      <c r="K16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P13" s="4" t="s">
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="15">
+        <f>B5</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="13">
+        <f>$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="14">
+        <f>$D$5</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <f>E5</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="I17" s="15">
+        <f>B6</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <f>$C$6</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="14">
+        <f>$D$6</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <f>E6</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="13">
+        <f t="shared" ref="C18:C21" si="0">$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" ref="D18:D21" si="1">$D$5</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="13">
+        <f t="shared" ref="J18:J21" si="2">$C$6</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" ref="K18:K21" si="3">$D$6</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="31"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="31"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="31"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="6" t="s">
+      <c r="D23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="15">
-        <f>B2</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="13">
-        <f>$C$2</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="14">
-        <f>$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
-        <f>E2</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="I14" s="15">
-        <f>B3</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="13">
-        <f>$C$3</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="14">
-        <f>$D$3</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <f>E3</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="P14" s="15">
-        <f>B4</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="13">
-        <f>$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="14">
-        <f>$D$4</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="9">
-        <f>E4</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="W14" s="19"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="13">
-        <f t="shared" ref="C15:C18" si="0">$C$2</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <f t="shared" ref="D15:D18" si="1">$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="13">
-        <f t="shared" ref="J15:J18" si="2">$C$3</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <f t="shared" ref="K15:K18" si="3">$D$3</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="55"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="13">
-        <f t="shared" ref="Q15:Q18" si="4">$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="14">
-        <f t="shared" ref="R15:R18" si="5">$D$4</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="55"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="W15" s="19"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="B24" s="15">
+        <f>B7</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="13">
+        <f>$C$7</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <f>$D$7</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <f>E7</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="55"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="13">
+      <c r="B25" s="29"/>
+      <c r="C25" s="13">
+        <f t="shared" ref="C25:C28" si="4">$C$7</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" ref="D25:D28" si="5">$D$7</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R16" s="14">
+      <c r="D26" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S16" s="55"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="W16" s="19"/>
-    </row>
-    <row r="17" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="55"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="13">
+      <c r="E26" s="31"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R17" s="14">
+      <c r="D27" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S17" s="55"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="W17" s="19"/>
-    </row>
-    <row r="18" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="55"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="13">
+      <c r="E27" s="31"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="29"/>
+      <c r="C28" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R18" s="14">
+      <c r="D28" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S18" s="55"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="W18" s="19"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I29" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="46"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I30" s="47"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="49"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="50"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="52"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E8" sqref="E8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="4">
-    <mergeCell ref="B7:G11"/>
-    <mergeCell ref="I10:N12"/>
-    <mergeCell ref="I1:R8"/>
-    <mergeCell ref="S1:T1"/>
+  <mergeCells count="7">
+    <mergeCell ref="I29:N31"/>
+    <mergeCell ref="B10:G14"/>
+    <mergeCell ref="I7:R14"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="F1:S2 A3:S35">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C$2="Your Name"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F2:G2" r:id="rId2" display="Video" xr:uid="{2FAC37B7-2643-4B1D-9EA5-DFB06E992225}"/>
+    <hyperlink ref="H2:J2" r:id="rId3" display="Example" xr:uid="{29888393-CBE6-49D6-BC8D-2F61D331C966}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
+++ b/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99624DD-700A-4998-9FAD-E2780137BE46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{852AF484-8260-415F-9082-1586AC29F551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1350" yWindow="1350" windowWidth="25995" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,12 +551,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -589,33 +583,42 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -643,33 +646,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -681,12 +657,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
@@ -702,8 +672,49 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -793,8 +804,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{433902EB-452D-4D6D-802B-FD677F61FA55}">
-  <header guid="{433902EB-452D-4D6D-802B-FD677F61FA55}" dateTime="2021-08-20T13:17:36" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6E8E60D4-42CD-4377-835A-34B30F860656}">
+  <header guid="{6E8E60D4-42CD-4377-835A-34B30F860656}" dateTime="2021-08-30T22:09:01" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -808,7 +819,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{433902EB-452D-4D6D-802B-FD677F61FA55}" name="Richard Ketchersid" id="-1739585527" dateTime="2021-08-20T13:17:36"/>
+  <userInfo guid="{6E8E60D4-42CD-4377-835A-34B30F860656}" name="Richard Ketchersid" id="-1739567129" dateTime="2021-08-30T22:09:01"/>
 </users>
 </file>
 
@@ -1136,7 +1147,7 @@
   <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1159,7 @@
     <col min="5" max="5" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
@@ -1161,40 +1172,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="55"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="D2" s="54"/>
+      <c r="F2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60" t="s">
+      <c r="G2" s="49"/>
+      <c r="H2" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="L2" s="18" t="s">
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="L2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1217,72 +1228,72 @@
       <c r="G4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="17"/>
-      <c r="L5" s="23" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
+      <c r="L5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="17"/>
-      <c r="L6" s="24" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
+      <c r="L6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="17"/>
-      <c r="I7" s="53" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
+      <c r="I7" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="46"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="29"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1290,139 +1301,139 @@
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="16"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="49"/>
+      <c r="G8" s="60"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="32"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="49"/>
+      <c r="A9" s="24"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="32"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="49"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="32"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="49"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="32"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="49"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="32"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="49"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="32"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="52"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="35"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
+      <c r="A15" s="24"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1461,7 +1472,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="15">
@@ -1480,8 +1491,8 @@
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
       <c r="I17" s="15">
         <f>B6</f>
         <v>0</v>
@@ -1498,14 +1509,14 @@
         <f>E6</f>
         <v>0</v>
       </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="13">
         <f t="shared" ref="C18:C21" si="0">$C$5</f>
         <v>0</v>
@@ -1514,10 +1525,10 @@
         <f t="shared" ref="D18:D21" si="1">$D$5</f>
         <v>0</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="I18" s="30"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="13">
         <f t="shared" ref="J18:J21" si="2">$C$6</f>
         <v>0</v>
@@ -1526,15 +1537,15 @@
         <f t="shared" ref="K18:K21" si="3">$D$6</f>
         <v>0</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1543,10 +1554,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="I19" s="30"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1555,15 +1566,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1572,10 +1583,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="I20" s="30"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1584,15 +1595,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1601,10 +1612,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="I21" s="30"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1613,12 +1624,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1644,7 +1655,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="15">
@@ -1663,15 +1674,15 @@
         <f>E7</f>
         <v>0</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="L24" s="16"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="L24" s="60"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="29"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="13">
         <f t="shared" ref="C25:C28" si="4">$C$7</f>
         <v>0</v>
@@ -1680,16 +1691,16 @@
         <f t="shared" ref="D25:D28" si="5">$D$7</f>
         <v>0</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="L25" s="16"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="L25" s="60"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1698,16 +1709,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="L26" s="16"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="L26" s="60"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1716,13 +1727,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="L27" s="16"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="L27" s="60"/>
     </row>
     <row r="28" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="29"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1731,42 +1742,42 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="L28" s="16"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="L28" s="60"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I29" s="44" t="s">
+      <c r="I29" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="46"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="29"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I30" s="47"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="49"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="32"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="50"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="52"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cJ18W+auts7E/xKiWRzcmAeghNshPy5ZiLSRMw/fScHKAsn/iJZbGMFMT56R3s8dc5mcQS8qDgbneGdiYMN75w==" saltValue="52rgiLiNqN+23xlMpLRbfw==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>

--- a/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
+++ b/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{852AF484-8260-415F-9082-1586AC29F551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{74675C5A-2816-44A3-AB50-33C33AC98452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1350" yWindow="1350" windowWidth="25995" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,9 +119,6 @@
     <t>today</t>
   </si>
   <si>
-    <t>Enter the information in columns B, C, D and E for each of your three stocks.  Enter a formula in cell G2 and use the fill-down feature to complete cells G3 and G4 (don't forget to include the fees in this formula).  Then enter a formula in cell G5 to compute the total of your three stock purchases.</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>Enter a formula in cell W24 to calculate the total gain/loss for all three stocks as of each date.  This will be done by adding the results in the gain/loss column for each stock. Use the fill-down feature to complete this column.</t>
+  </si>
+  <si>
+    <t>Enter the information in columns B, C, D and E for each of your three stocks.  Enter a formula in cell G5 and use the fill-down feature to complete cells G6 and G7 (don't forget to include the fees in this formula).  Then enter a formula in cell G8 to compute the total of your three stock purchases.</t>
   </si>
 </sst>
 </file>
@@ -592,6 +592,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -657,6 +693,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
@@ -671,50 +715,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -804,8 +804,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6E8E60D4-42CD-4377-835A-34B30F860656}">
-  <header guid="{6E8E60D4-42CD-4377-835A-34B30F860656}" dateTime="2021-08-30T22:09:01" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{215A51E7-B17D-46F1-B902-006157963676}">
+  <header guid="{215A51E7-B17D-46F1-B902-006157963676}" dateTime="2021-09-01T11:38:32" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -819,7 +819,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{6E8E60D4-42CD-4377-835A-34B30F860656}" name="Richard Ketchersid" id="-1739567129" dateTime="2021-08-30T22:09:01"/>
+  <userInfo guid="{215A51E7-B17D-46F1-B902-006157963676}" name="Richard Ketchersid" id="-1739586319" dateTime="2021-09-01T11:38:32"/>
 </users>
 </file>
 
@@ -1172,28 +1172,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="47"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="D2" s="58"/>
+      <c r="F2" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="F2" s="48" t="s">
+      <c r="G2" s="60"/>
+      <c r="H2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="63"/>
       <c r="L2" s="16" t="s">
         <v>13</v>
       </c>
@@ -1239,12 +1239,12 @@
       <c r="A5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
       <c r="L5" s="21" t="s">
         <v>19</v>
       </c>
@@ -1256,12 +1256,12 @@
       <c r="A6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
       <c r="L6" s="22" t="s">
         <v>21</v>
       </c>
@@ -1273,24 +1273,24 @@
       <c r="A7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
-      <c r="I7" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="29"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="I7" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="38"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
@@ -1301,127 +1301,127 @@
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="60"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="41"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="32"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="41"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
-      <c r="B10" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="32"/>
+      <c r="B10" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="41"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="32"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="41"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="32"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="41"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="32"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="41"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="35"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="44"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
@@ -1491,8 +1491,8 @@
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
       <c r="I17" s="15">
         <f>B6</f>
         <v>0</v>
@@ -1509,14 +1509,14 @@
         <f>E6</f>
         <v>0</v>
       </c>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="61"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="13">
         <f t="shared" ref="C18:C21" si="0">$C$5</f>
         <v>0</v>
@@ -1525,10 +1525,10 @@
         <f t="shared" ref="D18:D21" si="1">$D$5</f>
         <v>0</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="I18" s="63"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="13">
         <f t="shared" ref="J18:J21" si="2">$C$6</f>
         <v>0</v>
@@ -1537,15 +1537,15 @@
         <f t="shared" ref="K18:K21" si="3">$D$6</f>
         <v>0</v>
       </c>
-      <c r="L18" s="62"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="61"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1554,10 +1554,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="I19" s="63"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1566,15 +1566,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L19" s="62"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="61"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1583,10 +1583,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="I20" s="63"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="I20" s="35"/>
       <c r="J20" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1595,15 +1595,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L20" s="62"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="61"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1612,10 +1612,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="I21" s="63"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1624,9 +1624,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L21" s="62"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
@@ -1674,15 +1674,15 @@
         <f>E7</f>
         <v>0</v>
       </c>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="L24" s="60"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="L24" s="32"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="61"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="13">
         <f t="shared" ref="C25:C28" si="4">$C$7</f>
         <v>0</v>
@@ -1691,16 +1691,16 @@
         <f t="shared" ref="D25:D28" si="5">$D$7</f>
         <v>0</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="L25" s="60"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="L25" s="32"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="61"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1709,16 +1709,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="L26" s="60"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="L26" s="32"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="61"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1727,13 +1727,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="L27" s="60"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="L27" s="32"/>
     </row>
     <row r="28" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="61"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1742,39 +1742,39 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="L28" s="60"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="L28" s="32"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I29" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="29"/>
+      <c r="I29" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="38"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I30" s="30"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="32"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="41"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="33"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="35"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cJ18W+auts7E/xKiWRzcmAeghNshPy5ZiLSRMw/fScHKAsn/iJZbGMFMT56R3s8dc5mcQS8qDgbneGdiYMN75w==" saltValue="52rgiLiNqN+23xlMpLRbfw==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+uW93eWMU68UZhWNrdbfdQX4H2idKrshVZP+eJuaDT3qJ87/77SXyOA6908qNoXFoAph/gPbAHWuevu6CIhA1w==" saltValue="3tiv5FV0aSctpaeG7s9Afg==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}">
       <selection activeCell="C2" sqref="C2:D2"/>

--- a/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
+++ b/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{74675C5A-2816-44A3-AB50-33C33AC98452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{DBE3C5DE-5606-4752-B240-35BC4A981F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1350" yWindow="1350" windowWidth="25995" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>Shares</t>
   </si>
@@ -276,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -496,6 +496,19 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -504,7 +517,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -714,6 +727,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -722,7 +746,17 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -804,8 +838,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{215A51E7-B17D-46F1-B902-006157963676}">
-  <header guid="{215A51E7-B17D-46F1-B902-006157963676}" dateTime="2021-09-01T11:38:32" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{01037640-1229-4FD5-BF35-86920A80A8D2}">
+  <header guid="{01037640-1229-4FD5-BF35-86920A80A8D2}" dateTime="2021-09-08T14:10:58" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -819,7 +853,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{215A51E7-B17D-46F1-B902-006157963676}" name="Richard Ketchersid" id="-1739586319" dateTime="2021-09-01T11:38:32"/>
+  <userInfo guid="{01037640-1229-4FD5-BF35-86920A80A8D2}" name="Richard Ketchersid" id="-1739552832" dateTime="2021-09-08T14:10:58"/>
 </users>
 </file>
 
@@ -1144,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,26 +1486,26 @@
       <c r="G16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>23</v>
       </c>
@@ -1493,26 +1527,29 @@
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="I17" s="15">
+      <c r="I17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="15">
         <f>B6</f>
         <v>0</v>
       </c>
-      <c r="J17" s="13">
+      <c r="K17" s="13">
         <f>$C$6</f>
         <v>0</v>
       </c>
-      <c r="K17" s="14">
+      <c r="L17" s="14">
         <f>$D$6</f>
         <v>0</v>
       </c>
-      <c r="L17" s="9">
+      <c r="M17" s="9">
         <f>E6</f>
         <v>0</v>
       </c>
-      <c r="M17" s="32"/>
       <c r="N17" s="32"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O17" s="32"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>25</v>
       </c>
@@ -1528,20 +1565,23 @@
       <c r="E18" s="34"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="13">
-        <f t="shared" ref="J18:J21" si="2">$C$6</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="14">
-        <f t="shared" ref="K18:K21" si="3">$D$6</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="34"/>
-      <c r="M18" s="32"/>
+      <c r="I18" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="35"/>
+      <c r="K18" s="13">
+        <f t="shared" ref="K18:K21" si="2">$C$6</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" ref="L18:L21" si="3">$D$6</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="34"/>
       <c r="N18" s="32"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O18" s="32"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>24</v>
       </c>
@@ -1557,20 +1597,23 @@
       <c r="E19" s="34"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="13">
+      <c r="I19" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="35"/>
+      <c r="K19" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K19" s="14">
+      <c r="L19" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="32"/>
+      <c r="M19" s="34"/>
       <c r="N19" s="32"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O19" s="32"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>26</v>
       </c>
@@ -1586,20 +1629,23 @@
       <c r="E20" s="34"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="13">
+      <c r="I20" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="35"/>
+      <c r="K20" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="14">
+      <c r="L20" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L20" s="34"/>
-      <c r="M20" s="32"/>
+      <c r="M20" s="34"/>
       <c r="N20" s="32"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O20" s="32"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>27</v>
       </c>
@@ -1615,20 +1661,23 @@
       <c r="E21" s="34"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="13">
+      <c r="I21" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="35"/>
+      <c r="K21" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="14">
+      <c r="L21" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="32"/>
+      <c r="M21" s="34"/>
       <c r="N21" s="32"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="32"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>23</v>
       </c>
@@ -1650,11 +1699,15 @@
       <c r="G23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="I23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="66" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="66"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>25</v>
       </c>
@@ -1676,27 +1729,35 @@
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
-      <c r="L24" s="32"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="13">
-        <f t="shared" ref="C25:C28" si="4">$C$7</f>
+        <f t="shared" ref="C25:C27" si="4">$C$7</f>
         <v>0</v>
       </c>
       <c r="D25" s="14">
-        <f t="shared" ref="D25:D28" si="5">$D$7</f>
+        <f t="shared" ref="D25:D27" si="5">$D$7</f>
         <v>0</v>
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
-      <c r="L25" s="32"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I25" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>26</v>
       </c>
@@ -1712,9 +1773,13 @@
       <c r="E26" s="34"/>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
-      <c r="L26" s="32"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I26" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>27</v>
       </c>
@@ -1730,69 +1795,68 @@
       <c r="E27" s="34"/>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
-      <c r="L27" s="32"/>
-    </row>
-    <row r="28" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="33"/>
-      <c r="C28" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="L28" s="32"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I29" s="36" t="s">
+      <c r="I27" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H28" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="38"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="41"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="42"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="44"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="38"/>
+    </row>
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="39"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="41"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+uW93eWMU68UZhWNrdbfdQX4H2idKrshVZP+eJuaDT3qJ87/77SXyOA6908qNoXFoAph/gPbAHWuevu6CIhA1w==" saltValue="3tiv5FV0aSctpaeG7s9Afg==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mzVd0jqUuX86tirytO/sPIgAWySUQ5e1MxMH3N+2ynyyZEEEt01vUKGe0w6yYaX0mqZQmafpVY3EFtEHkp9+1g==" saltValue="TJlW/4iZ5UblGLVXwNCdOw==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="C3" sqref="C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="7">
-    <mergeCell ref="I29:N31"/>
+  <mergeCells count="12">
+    <mergeCell ref="H28:M30"/>
     <mergeCell ref="B10:G14"/>
     <mergeCell ref="I7:R14"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="F1:S2 A3:S35">
+  <conditionalFormatting sqref="F1:S2 A28:A35 H28:H35 B28:G34 A3:S15 A16:H27 P16:S30 J16:O22 L23:L26 N23:O26 J23:J27 I32 I31:S31 P32:S35 H28:M30">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C$2="Your Name"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I27">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C$2="Your Name"</formula>
     </cfRule>

--- a/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
+++ b/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{DBE3C5DE-5606-4752-B240-35BC4A981F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{0837930A-594A-4C48-9EF1-CE5AC047B2B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1350" yWindow="1350" windowWidth="25995" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,9 +122,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Your Name</t>
-  </si>
-  <si>
     <t>Video</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>Enter the information in columns B, C, D and E for each of your three stocks.  Enter a formula in cell G5 and use the fill-down feature to complete cells G6 and G7 (don't forget to include the fees in this formula).  Then enter a formula in cell G8 to compute the total of your three stock purchases.</t>
+  </si>
+  <si>
+    <t>Richard</t>
   </si>
 </sst>
 </file>
@@ -276,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -511,13 +511,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -641,8 +665,9 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -729,6 +754,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -737,8 +765,31 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -746,17 +797,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -838,8 +879,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{01037640-1229-4FD5-BF35-86920A80A8D2}">
-  <header guid="{01037640-1229-4FD5-BF35-86920A80A8D2}" dateTime="2021-09-08T14:10:58" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{70E1A2CD-75C0-4297-B20D-563EEC000694}">
+  <header guid="{70E1A2CD-75C0-4297-B20D-563EEC000694}" dateTime="2021-09-09T14:00:23" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -853,7 +894,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{01037640-1229-4FD5-BF35-86920A80A8D2}" name="Richard Ketchersid" id="-1739552832" dateTime="2021-09-08T14:10:58"/>
+  <userInfo guid="{70E1A2CD-75C0-4297-B20D-563EEC000694}" name="Richard Ketchersid" id="-1739566481" dateTime="2021-09-09T14:00:23"/>
 </users>
 </file>
 
@@ -1178,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,15 +1257,15 @@
         <v>28</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D2" s="58"/>
       <c r="F2" s="59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="60"/>
       <c r="H2" s="61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="62"/>
       <c r="J2" s="63"/>
@@ -1314,7 +1355,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="31"/>
       <c r="I7" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
@@ -1363,7 +1404,7 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -1677,10 +1718,7 @@
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>23</v>
-      </c>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
@@ -1699,17 +1737,14 @@
       <c r="G23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="66" t="s">
+      <c r="J23" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="66"/>
+      <c r="K23" s="64"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="15">
         <f>B7</f>
@@ -1730,36 +1765,42 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="I24" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
+        <v>23</v>
+      </c>
+      <c r="J24" s="65"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="70"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="13">
-        <f t="shared" ref="C25:C27" si="4">$C$7</f>
+        <f t="shared" ref="C25:C28" si="4">$C$7</f>
         <v>0</v>
       </c>
       <c r="D25" s="14">
-        <f t="shared" ref="D25:D27" si="5">$D$7</f>
+        <f t="shared" ref="D25:D28" si="5">$D$7</f>
         <v>0</v>
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
       <c r="I25" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
+        <v>25</v>
+      </c>
+      <c r="J25" s="65"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="72"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="13">
@@ -1774,14 +1815,16 @@
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="I26" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="65"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="72"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
         <v>26</v>
-      </c>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-    </row>
-    <row r="27" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
-        <v>27</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="13">
@@ -1796,48 +1839,48 @@
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="I27" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="66"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="72"/>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H28" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="38"/>
-    </row>
-    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="41"/>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="44"/>
-    </row>
+      <c r="B28" s="33"/>
+      <c r="C28" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="I28" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="65"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="74"/>
+    </row>
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mzVd0jqUuX86tirytO/sPIgAWySUQ5e1MxMH3N+2ynyyZEEEt01vUKGe0w6yYaX0mqZQmafpVY3EFtEHkp9+1g==" saltValue="TJlW/4iZ5UblGLVXwNCdOw==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="G+HaKBB30wJop3Z5b4b3GkSNK5574emYfDqmxFOu6yDlOpUmH0BE1inPRj4JbXtZ8KbVdEHXgu08h2FKTqBs5A==" saltValue="TqbCWTziMkQN4K1jQi/eBg==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
-    <customSheetView guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}">
-      <selection activeCell="C3" sqref="C3"/>
+    <customSheetView guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}" topLeftCell="A13">
+      <selection activeCell="B28" sqref="B28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="12">
-    <mergeCell ref="H28:M30"/>
+  <mergeCells count="13">
     <mergeCell ref="B10:G14"/>
     <mergeCell ref="I7:R14"/>
     <mergeCell ref="L1:M1"/>
@@ -1849,15 +1892,12 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L24:M28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="F1:S2 A28:A35 H28:H35 B28:G34 A3:S15 A16:H27 P16:S30 J16:O22 L23:L26 N23:O26 J23:J27 I32 I31:S31 P32:S35 H28:M30">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$C$2="Your Name"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I27">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="F1:S2 A3:S15 J16:O22 N23:O23 I32 J23:J28 I17:I22 I24:I28 B28:G34 A16:H22 B23:H27 A24:A35 H31:H35 L23:L24 P16:S23 P24:Q27 I31:M31 N28:Q28 R24:S35 P29:Q32">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C$2="Your Name"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
+++ b/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{0837930A-594A-4C48-9EF1-CE5AC047B2B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{EFA0B5A6-5472-4BB5-9B0C-FBD3E8D9FB89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1350" yWindow="1350" windowWidth="25995" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,18 +128,18 @@
     <t>Example</t>
   </si>
   <si>
+    <t>Enter a formula in cell W24 to calculate the total gain/loss for all three stocks as of each date.  This will be done by adding the results in the gain/loss column for each stock. Use the fill-down feature to complete this column.</t>
+  </si>
+  <si>
+    <t>Enter the information in columns B, C, D and E for each of your three stocks.  Enter a formula in cell G5 and use the fill-down feature to complete cells G6 and G7 (don't forget to include the fees in this formula).  Then enter a formula in cell G8 to compute the total of your three stock purchases.</t>
+  </si>
+  <si>
     <t>- Enter the date and closing price of each stock for each date you track after the purchase date. 
-- Enter a formula in cells F17, M17, and F24 to calculate the value of each stock for each date.  Use the fill-down feature to complete these columns.
-- Enter a formula in cells G17, N17, and G24 to calculate the gain/loss of value for each stock as of each date.  Use the fill-down feature to complete these columns.  This formula should compare the value as of each date to the initial investment near the top of column F.  You will need to use $ to lock the cell where the initial investment for each stock appears.</t>
-  </si>
-  <si>
-    <t>Enter a formula in cell W24 to calculate the total gain/loss for all three stocks as of each date.  This will be done by adding the results in the gain/loss column for each stock. Use the fill-down feature to complete this column.</t>
-  </si>
-  <si>
-    <t>Enter the information in columns B, C, D and E for each of your three stocks.  Enter a formula in cell G5 and use the fill-down feature to complete cells G6 and G7 (don't forget to include the fees in this formula).  Then enter a formula in cell G8 to compute the total of your three stock purchases.</t>
-  </si>
-  <si>
-    <t>Richard</t>
+- Enter a formula in cells F17, N17, and F24 to calculate the value of each stock for each date.  Use the fill-down feature to complete these columns.
+- Enter a formula in cells G17, O17, and G24 to calculate the gain/loss of value for each stock as of each date.  Use the fill-down feature to complete these columns.  This formula should compare the value as of each date to the initial investment near the top of column F.  You will need to use $ to lock the cell where the initial investment for each stock appears.</t>
+  </si>
+  <si>
+    <t>Your Name</t>
   </si>
 </sst>
 </file>
@@ -669,6 +669,36 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -693,36 +723,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -761,20 +761,20 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -879,8 +879,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{70E1A2CD-75C0-4297-B20D-563EEC000694}">
-  <header guid="{70E1A2CD-75C0-4297-B20D-563EEC000694}" dateTime="2021-09-09T14:00:23" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2545E1A0-93F1-4D0C-B870-36F7EAA51367}">
+  <header guid="{2545E1A0-93F1-4D0C-B870-36F7EAA51367}" dateTime="2021-09-27T11:11:32" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -894,7 +894,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{70E1A2CD-75C0-4297-B20D-563EEC000694}" name="Richard Ketchersid" id="-1739566481" dateTime="2021-09-09T14:00:23"/>
+  <userInfo guid="{2545E1A0-93F1-4D0C-B870-36F7EAA51367}" name="Richard Ketchersid" id="-1739534591" dateTime="2021-09-27T11:11:32"/>
 </users>
 </file>
 
@@ -1221,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,18 +1354,18 @@
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="31"/>
-      <c r="I7" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="38"/>
+      <c r="I7" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="48"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
@@ -1377,126 +1377,126 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="32"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="41"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="51"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="41"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="51"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
-      <c r="B10" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="41"/>
+      <c r="B10" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="51"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="41"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="51"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="41"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="51"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="41"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="51"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="44"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="54"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
@@ -1768,9 +1768,9 @@
         <v>23</v>
       </c>
       <c r="J24" s="65"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="67" t="s">
-        <v>32</v>
+      <c r="K24" s="66"/>
+      <c r="L24" s="69" t="s">
+        <v>31</v>
       </c>
       <c r="M24" s="70"/>
     </row>
@@ -1794,7 +1794,7 @@
         <v>25</v>
       </c>
       <c r="J25" s="65"/>
-      <c r="K25" s="68"/>
+      <c r="K25" s="66"/>
       <c r="L25" s="71"/>
       <c r="M25" s="72"/>
     </row>
@@ -1818,7 +1818,7 @@
         <v>24</v>
       </c>
       <c r="J26" s="65"/>
-      <c r="K26" s="68"/>
+      <c r="K26" s="66"/>
       <c r="L26" s="71"/>
       <c r="M26" s="72"/>
     </row>
@@ -1841,8 +1841,8 @@
       <c r="I27" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="66"/>
-      <c r="K27" s="69"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
       <c r="L27" s="71"/>
       <c r="M27" s="72"/>
     </row>
@@ -1866,34 +1866,34 @@
         <v>27</v>
       </c>
       <c r="J28" s="65"/>
-      <c r="K28" s="68"/>
+      <c r="K28" s="66"/>
       <c r="L28" s="73"/>
       <c r="M28" s="74"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="G+HaKBB30wJop3Z5b4b3GkSNK5574emYfDqmxFOu6yDlOpUmH0BE1inPRj4JbXtZ8KbVdEHXgu08h2FKTqBs5A==" saltValue="TqbCWTziMkQN4K1jQi/eBg==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PueGiS3ZvP59GPFcslMG+wVPsC45TY8E8X/AIwsTWLdIYq/7SkeKjpEh9il8eqYrjBKT2UMsosDnuh5QJHjpLw==" saltValue="aRjU6aLH7b/Yxb9EOYR/tA==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
-    <customSheetView guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}" topLeftCell="A13">
-      <selection activeCell="B28" sqref="B28"/>
+    <customSheetView guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}">
+      <selection activeCell="C3" sqref="C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="13">
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L24:M28"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
     <mergeCell ref="B10:G14"/>
     <mergeCell ref="I7:R14"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L24:M28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F1:S2 A3:S15 J16:O22 N23:O23 I32 J23:J28 I17:I22 I24:I28 B28:G34 A16:H22 B23:H27 A24:A35 H31:H35 L23:L24 P16:S23 P24:Q27 I31:M31 N28:Q28 R24:S35 P29:Q32">

--- a/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
+++ b/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{EFA0B5A6-5472-4BB5-9B0C-FBD3E8D9FB89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{333C0055-6967-4169-8A8B-F3FDCDD78B62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1350" yWindow="1350" windowWidth="25995" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -502,37 +502,26 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -541,7 +530,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -754,22 +743,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -790,6 +768,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -879,8 +864,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2545E1A0-93F1-4D0C-B870-36F7EAA51367}">
-  <header guid="{2545E1A0-93F1-4D0C-B870-36F7EAA51367}" dateTime="2021-09-27T11:11:32" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3B3BBE11-EA03-4F0A-B005-C1D3535E47E6}">
+  <header guid="{3B3BBE11-EA03-4F0A-B005-C1D3535E47E6}" dateTime="2021-11-18T14:03:47" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -894,7 +879,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{2545E1A0-93F1-4D0C-B870-36F7EAA51367}" name="Richard Ketchersid" id="-1739534591" dateTime="2021-09-27T11:11:32"/>
+  <userInfo guid="{3B3BBE11-EA03-4F0A-B005-C1D3535E47E6}" name="Richard Ketchersid" id="-1739548321" dateTime="2021-11-18T14:03:47"/>
 </users>
 </file>
 
@@ -1737,10 +1722,10 @@
       <c r="G23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="64" t="s">
+      <c r="J23" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="64"/>
+      <c r="K23" s="72"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
@@ -1767,12 +1752,12 @@
       <c r="I24" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="65"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="69" t="s">
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="70"/>
+      <c r="M24" s="67"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
@@ -1794,9 +1779,9 @@
         <v>25</v>
       </c>
       <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="72"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
@@ -1818,9 +1803,9 @@
         <v>24</v>
       </c>
       <c r="J26" s="65"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="72"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
@@ -1841,10 +1826,10 @@
       <c r="I27" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="67"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="72"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="69"/>
     </row>
     <row r="28" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
@@ -1866,9 +1851,9 @@
         <v>27</v>
       </c>
       <c r="J28" s="65"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="74"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="71"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
+++ b/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{333C0055-6967-4169-8A8B-F3FDCDD78B62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{F12BD6C1-75F4-473F-A17C-3B0671A7B781}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="1350" windowWidth="25995" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="1455" windowWidth="21750" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}" mergeInterval="0" personalView="1" xWindow="90" yWindow="90" windowWidth="1733" windowHeight="952" activeSheetId="1"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}" mergeInterval="0" personalView="1" xWindow="90" yWindow="97" windowWidth="1450" windowHeight="945" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -139,7 +139,7 @@
 - Enter a formula in cells G17, O17, and G24 to calculate the gain/loss of value for each stock as of each date.  Use the fill-down feature to complete these columns.  This formula should compare the value as of each date to the initial investment near the top of column F.  You will need to use $ to lock the cell where the initial investment for each stock appears.</t>
   </si>
   <si>
-    <t>Your Name</t>
+    <t>Richard</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -658,6 +658,35 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -742,39 +771,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -864,8 +860,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3B3BBE11-EA03-4F0A-B005-C1D3535E47E6}">
-  <header guid="{3B3BBE11-EA03-4F0A-B005-C1D3535E47E6}" dateTime="2021-11-18T14:03:47" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{232631F5-5D5B-49AE-AC9B-D3668C8B229F}">
+  <header guid="{232631F5-5D5B-49AE-AC9B-D3668C8B229F}" dateTime="2022-04-26T15:18:48" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -879,7 +875,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{3B3BBE11-EA03-4F0A-B005-C1D3535E47E6}" name="Richard Ketchersid" id="-1739548321" dateTime="2021-11-18T14:03:47"/>
+  <userInfo guid="{232631F5-5D5B-49AE-AC9B-D3668C8B229F}" name="Richard Ketchersid" id="-1739533206" dateTime="2022-04-26T15:18:48"/>
 </users>
 </file>
 
@@ -1207,7 +1203,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,28 +1228,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="56"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="F2" s="59" t="s">
+      <c r="D2" s="67"/>
+      <c r="F2" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="63"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
       <c r="L2" s="16" t="s">
         <v>13</v>
       </c>
@@ -1339,18 +1335,18 @@
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="31"/>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="48"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="57"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
@@ -1362,126 +1358,126 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="32"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="51"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="60"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="51"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="60"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="51"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="60"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="51"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="60"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="51"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="60"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="51"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="60"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="54"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
@@ -1722,10 +1718,10 @@
       <c r="G23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="72" t="s">
+      <c r="J23" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="72"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
@@ -1752,12 +1748,12 @@
       <c r="I24" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66" t="s">
+      <c r="J24" s="37"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="67"/>
+      <c r="M24" s="40"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
@@ -1778,10 +1774,10 @@
       <c r="I25" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="65"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="69"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="42"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
@@ -1802,10 +1798,10 @@
       <c r="I26" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="65"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="69"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="42"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
@@ -1826,10 +1822,10 @@
       <c r="I27" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="65"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="69"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="42"/>
     </row>
     <row r="28" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
@@ -1850,22 +1846,28 @@
       <c r="I28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="65"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="71"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PueGiS3ZvP59GPFcslMG+wVPsC45TY8E8X/AIwsTWLdIYq/7SkeKjpEh9il8eqYrjBKT2UMsosDnuh5QJHjpLw==" saltValue="aRjU6aLH7b/Yxb9EOYR/tA==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iw1MQaKerqr97XtqLDZCoR0jSuB9LqQw+FUeowNz9EjmrI+eY4HufvqS9SMzvKnGUJDyNcGNeqPEMyBONbFhZw==" saltValue="EsSLvTozF38GLKZNUDuusQ==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I31" sqref="I31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="13">
+    <mergeCell ref="B10:G14"/>
+    <mergeCell ref="I7:R14"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="L24:M28"/>
     <mergeCell ref="J23:K23"/>
@@ -1873,15 +1875,9 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B10:G14"/>
-    <mergeCell ref="I7:R14"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="F1:S2 A3:S15 J16:O22 N23:O23 I32 J23:J28 I17:I22 I24:I28 B28:G34 A16:H22 B23:H27 A24:A35 H31:H35 L23:L24 P16:S23 P24:Q27 I31:M31 N28:Q28 R24:S35 P29:Q32">
+  <conditionalFormatting sqref="F1:S2 A3:S15 J16:O22 N23:O23 I32 I17:I22 I24:I28 B28:G34 A16:H22 B23:H27 A24:A35 H31:H35 L23:L24 P16:S23 P24:Q27 I31:M31 N28:Q28 R24:S35 P29:Q32 J23:J28">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C$2="Your Name"</formula>
     </cfRule>

--- a/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
+++ b/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{F12BD6C1-75F4-473F-A17C-3B0671A7B781}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{E6162C51-AB33-40B5-8E6C-B7BAC8C9BDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1350" yWindow="1455" windowWidth="21750" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 - Enter a formula in cells G17, O17, and G24 to calculate the gain/loss of value for each stock as of each date.  Use the fill-down feature to complete these columns.  This formula should compare the value as of each date to the initial investment near the top of column F.  You will need to use $ to lock the cell where the initial investment for each stock appears.</t>
   </si>
   <si>
-    <t>Richard</t>
+    <t>Your Name</t>
   </si>
 </sst>
 </file>
@@ -658,6 +658,91 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -685,91 +770,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -860,8 +860,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{232631F5-5D5B-49AE-AC9B-D3668C8B229F}">
-  <header guid="{232631F5-5D5B-49AE-AC9B-D3668C8B229F}" dateTime="2022-04-26T15:18:48" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0CA8514F-C8A3-407E-8607-220BAFB3F99D}">
+  <header guid="{0CA8514F-C8A3-407E-8607-220BAFB3F99D}" dateTime="2022-07-06T15:21:46" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -875,7 +875,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{232631F5-5D5B-49AE-AC9B-D3668C8B229F}" name="Richard Ketchersid" id="-1739533206" dateTime="2022-04-26T15:18:48"/>
+  <userInfo guid="{0CA8514F-C8A3-407E-8607-220BAFB3F99D}" name="Richard Ketchersid" id="-1739542638" dateTime="2022-07-06T15:21:46"/>
 </users>
 </file>
 
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,28 +1228,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="65"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="F2" s="68" t="s">
+      <c r="D2" s="58"/>
+      <c r="F2" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70" t="s">
+      <c r="G2" s="60"/>
+      <c r="H2" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="63"/>
       <c r="L2" s="16" t="s">
         <v>13</v>
       </c>
@@ -1335,18 +1335,18 @@
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="31"/>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="57"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="48"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
@@ -1358,126 +1358,126 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="32"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="60"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="51"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="60"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="51"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="60"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="51"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="60"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="51"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="60"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="51"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="60"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="51"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="63"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="54"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
@@ -1718,10 +1718,10 @@
       <c r="G23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="45"/>
+      <c r="K23" s="72"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
@@ -1748,12 +1748,12 @@
       <c r="I24" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="39" t="s">
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="40"/>
+      <c r="M24" s="67"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
@@ -1774,10 +1774,10 @@
       <c r="I25" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="42"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
@@ -1798,10 +1798,10 @@
       <c r="I26" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="42"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
@@ -1822,10 +1822,10 @@
       <c r="I27" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="69"/>
     </row>
     <row r="28" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
@@ -1846,28 +1846,22 @@
       <c r="I28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="44"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="71"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="iw1MQaKerqr97XtqLDZCoR0jSuB9LqQw+FUeowNz9EjmrI+eY4HufvqS9SMzvKnGUJDyNcGNeqPEMyBONbFhZw==" saltValue="EsSLvTozF38GLKZNUDuusQ==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="C3" sqref="C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="13">
-    <mergeCell ref="B10:G14"/>
-    <mergeCell ref="I7:R14"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:J2"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="L24:M28"/>
     <mergeCell ref="J23:K23"/>
@@ -1875,6 +1869,12 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B10:G14"/>
+    <mergeCell ref="I7:R14"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F1:S2 A3:S15 J16:O22 N23:O23 I32 I17:I22 I24:I28 B28:G34 A16:H22 B23:H27 A24:A35 H31:H35 L23:L24 P16:S23 P24:Q27 I31:M31 N28:Q28 R24:S35 P29:Q32 J23:J28">

--- a/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
+++ b/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{E6162C51-AB33-40B5-8E6C-B7BAC8C9BDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{06BCE173-A70B-4188-8E1D-C58D41BAB883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1350" yWindow="1455" windowWidth="21750" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>Shares</t>
   </si>
@@ -140,6 +141,9 @@
   </si>
   <si>
     <t>Your Name</t>
+  </si>
+  <si>
+    <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
   </si>
 </sst>
 </file>
@@ -150,7 +154,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +235,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -530,7 +542,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -658,6 +670,35 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -743,34 +784,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -860,10 +875,11 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0CA8514F-C8A3-407E-8607-220BAFB3F99D}">
-  <header guid="{0CA8514F-C8A3-407E-8607-220BAFB3F99D}" dateTime="2022-07-06T15:21:46" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{52F6B5CF-2B7F-4CE4-980C-FE47F87D9FE9}">
+  <header guid="{52F6B5CF-2B7F-4CE4-980C-FE47F87D9FE9}" dateTime="2022-07-20T14:05:27" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="2">
       <sheetId val="1"/>
+      <sheetId val="2"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -875,7 +891,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{0CA8514F-C8A3-407E-8607-220BAFB3F99D}" name="Richard Ketchersid" id="-1739542638" dateTime="2022-07-06T15:21:46"/>
+  <userInfo guid="{52F6B5CF-2B7F-4CE4-980C-FE47F87D9FE9}" name="Richard Ketchersid" id="-1739559402" dateTime="2022-07-20T14:05:27"/>
 </users>
 </file>
 
@@ -1228,28 +1244,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="56"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="F2" s="59" t="s">
+      <c r="D2" s="67"/>
+      <c r="F2" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="63"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
       <c r="L2" s="16" t="s">
         <v>13</v>
       </c>
@@ -1335,18 +1351,18 @@
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="31"/>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="48"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="57"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
@@ -1358,126 +1374,126 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="32"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="51"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="60"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="51"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="60"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="51"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="60"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="51"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="60"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="51"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="60"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="51"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="60"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="54"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
@@ -1718,10 +1734,10 @@
       <c r="G23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="72" t="s">
+      <c r="J23" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="72"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
@@ -1748,12 +1764,12 @@
       <c r="I24" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66" t="s">
+      <c r="J24" s="37"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="67"/>
+      <c r="M24" s="40"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
@@ -1774,10 +1790,10 @@
       <c r="I25" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="64"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="69"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="42"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
@@ -1798,10 +1814,10 @@
       <c r="I26" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="64"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="69"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="42"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
@@ -1822,10 +1838,10 @@
       <c r="I27" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="64"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="69"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="42"/>
     </row>
     <row r="28" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
@@ -1846,10 +1862,10 @@
       <c r="I28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="64"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="71"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1862,6 +1878,12 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="13">
+    <mergeCell ref="B10:G14"/>
+    <mergeCell ref="I7:R14"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="L24:M28"/>
     <mergeCell ref="J23:K23"/>
@@ -1869,12 +1891,6 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B10:G14"/>
-    <mergeCell ref="I7:R14"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F1:S2 A3:S15 J16:O22 N23:O23 I32 I17:I22 I24:I28 B28:G34 A16:H22 B23:H27 A24:A35 H31:H35 L23:L24 P16:S23 P24:Q27 I31:M31 N28:Q28 R24:S35 P29:Q32 J23:J28">
@@ -1890,4 +1906,88 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
   <drawing r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00706588-F50F-4137-81F6-70C18041AF76}">
+  <dimension ref="B4:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}" state="hidden">
+      <selection activeCell="J17" sqref="J17"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="B4:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
+++ b/144F20/Topic 7/QR_2-7_Tech_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{06BCE173-A70B-4188-8E1D-C58D41BAB883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{F7E8D08D-9C25-4AA0-8CC3-7C5FD128D0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="1455" windowWidth="21750" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1164" windowWidth="17400" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>Example</t>
   </si>
   <si>
-    <t>Enter a formula in cell W24 to calculate the total gain/loss for all three stocks as of each date.  This will be done by adding the results in the gain/loss column for each stock. Use the fill-down feature to complete this column.</t>
-  </si>
-  <si>
     <t>Enter the information in columns B, C, D and E for each of your three stocks.  Enter a formula in cell G5 and use the fill-down feature to complete cells G6 and G7 (don't forget to include the fees in this formula).  Then enter a formula in cell G8 to compute the total of your three stock purchases.</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
+  </si>
+  <si>
+    <t>Enter a formula in cell J24 to calculate the total gain/loss for all three stocks as of each date.  This will be done by adding the results in the gain/loss column for each stock. Use the fill-down feature to complete this column.</t>
   </si>
 </sst>
 </file>
@@ -670,6 +670,91 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -697,91 +782,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -875,8 +875,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{52F6B5CF-2B7F-4CE4-980C-FE47F87D9FE9}">
-  <header guid="{52F6B5CF-2B7F-4CE4-980C-FE47F87D9FE9}" dateTime="2022-07-20T14:05:27" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6F17DF89-DB2C-48EE-809E-358688A6887C}">
+  <header guid="{6F17DF89-DB2C-48EE-809E-358688A6887C}" dateTime="2023-02-22T17:30:16" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -891,7 +891,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{52F6B5CF-2B7F-4CE4-980C-FE47F87D9FE9}" name="Richard Ketchersid" id="-1739559402" dateTime="2022-07-20T14:05:27"/>
+  <userInfo guid="{6F17DF89-DB2C-48EE-809E-358688A6887C}" name="Richard Ketchersid" id="-1739550963" dateTime="2023-02-22T17:30:16"/>
 </users>
 </file>
 
@@ -1218,54 +1218,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" customWidth="1"/>
+    <col min="23" max="23" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L1" s="64" t="s">
+    <row r="1" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="65"/>
-    </row>
-    <row r="2" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M1" s="56"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="67"/>
-      <c r="F2" s="68" t="s">
+      <c r="C2" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="58"/>
+      <c r="F2" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70" t="s">
+      <c r="G2" s="60"/>
+      <c r="H2" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="63"/>
       <c r="L2" s="16" t="s">
         <v>13</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>23</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>23</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>23</v>
       </c>
@@ -1351,20 +1351,20 @@
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="31"/>
-      <c r="I7" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="57"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I7" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="48"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
@@ -1374,128 +1374,128 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="32"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="60"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="51"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="60"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="51"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
-      <c r="B10" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="60"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="51"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="60"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="51"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="60"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="51"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="60"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="51"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="63"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="54"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
@@ -1504,7 +1504,7 @@
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="4" t="s">
         <v>7</v>
@@ -1543,7 +1543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>23</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>25</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>24</v>
       </c>
@@ -1651,7 +1651,7 @@
       <c r="N19" s="32"/>
       <c r="O19" s="32"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>26</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="N20" s="32"/>
       <c r="O20" s="32"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>27</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
@@ -1734,12 +1734,12 @@
       <c r="G23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="45"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="72"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>23</v>
       </c>
@@ -1764,14 +1764,14 @@
       <c r="I24" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="40"/>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="67"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>25</v>
       </c>
@@ -1790,12 +1790,12 @@
       <c r="I25" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="42"/>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="69"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>24</v>
       </c>
@@ -1814,12 +1814,12 @@
       <c r="I26" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="42"/>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="69"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>26</v>
       </c>
@@ -1838,12 +1838,12 @@
       <c r="I27" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="42"/>
-    </row>
-    <row r="28" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="69"/>
+    </row>
+    <row r="28" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
         <v>27</v>
       </c>
@@ -1862,28 +1862,22 @@
       <c r="I28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="44"/>
-    </row>
-    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="71"/>
+    </row>
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iw1MQaKerqr97XtqLDZCoR0jSuB9LqQw+FUeowNz9EjmrI+eY4HufvqS9SMzvKnGUJDyNcGNeqPEMyBONbFhZw==" saltValue="EsSLvTozF38GLKZNUDuusQ==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vh8NGgY57HsWPIXaHtG3OUYhW9siWgxk0MxCUeEO5Vr1ygVkWPmPg3UwKpnBYvLySF1SaztCN5aDddkHVTBUKg==" saltValue="mND4sij6mmaKOEey+NE/2Q==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
-    <customSheetView guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}">
-      <selection activeCell="C3" sqref="C3"/>
+    <customSheetView guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}" topLeftCell="B13">
+      <selection activeCell="D36" sqref="D36"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="13">
-    <mergeCell ref="B10:G14"/>
-    <mergeCell ref="I7:R14"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:J2"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="L24:M28"/>
     <mergeCell ref="J23:K23"/>
@@ -1891,6 +1885,12 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B10:G14"/>
+    <mergeCell ref="I7:R14"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F1:S2 A3:S15 J16:O22 N23:O23 I32 I17:I22 I24:I28 B28:G34 A16:H22 B23:H27 A24:A35 H31:H35 L23:L24 P16:S23 P24:Q27 I31:M31 N28:Q28 R24:S35 P29:Q32 J23:J28">
@@ -1916,11 +1916,11 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
@@ -1928,7 +1928,7 @@
       <c r="F4" s="73"/>
       <c r="G4" s="73"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="73"/>
       <c r="C5" s="73"/>
       <c r="D5" s="73"/>
@@ -1936,7 +1936,7 @@
       <c r="F5" s="73"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="73"/>
       <c r="C6" s="73"/>
       <c r="D6" s="73"/>
@@ -1944,7 +1944,7 @@
       <c r="F6" s="73"/>
       <c r="G6" s="73"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="73"/>
       <c r="C7" s="73"/>
       <c r="D7" s="73"/>
@@ -1952,7 +1952,7 @@
       <c r="F7" s="73"/>
       <c r="G7" s="73"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="73"/>
       <c r="C8" s="73"/>
       <c r="D8" s="73"/>
@@ -1960,7 +1960,7 @@
       <c r="F8" s="73"/>
       <c r="G8" s="73"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="73"/>
       <c r="C9" s="73"/>
       <c r="D9" s="73"/>
@@ -1968,7 +1968,7 @@
       <c r="F9" s="73"/>
       <c r="G9" s="73"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="73"/>
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
